--- a/pred_ohlcv/54_21/2019-10-29 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ORBS ohlcv.xlsx
@@ -5306,7 +5306,7 @@
         <v>-2432846.934285532</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2475277.573985532</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2366176.983885532</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2214932.462185532</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1723439.168111548</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1095173.805232183</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1171602.910732183</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1216602.910732183</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1241774.991932183</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ORBS ohlcv.xlsx
@@ -5462,7 +5462,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2533556.573985532</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2366176.983885532</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2366440.290885532</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2366427.290885532</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1669793.950111548</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1723439.168111548</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2018093.417011548</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1909255.358432183</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1108230.348232183</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1133355.523632183</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1095183.805232183</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1095173.805232183</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1139153.524932183</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1171602.910732183</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1216602.910732183</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1241774.991932183</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1217984.991932183</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1247976.366932183</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
